--- a/biology/Zoologie/Hypopachus_barberi/Hypopachus_barberi.xlsx
+++ b/biology/Zoologie/Hypopachus_barberi/Hypopachus_barberi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hypopachus barberi est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypopachus barberi est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le sud du Guatemala, dans l'ouest du Honduras, dans le sud-est du Mexique et au Salvador. Elle est présente entre 1 470 et 2 200 m d'altitude[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le sud du Guatemala, dans l'ouest du Honduras, dans le sud-est du Mexique et au Salvador. Elle est présente entre 1 470 et 2 200 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypopachus barberi mesure environ 35-40 mm. Son dos est brun assez terne uniforme à l'exception d'une grande tache à la racine de chaque cuisse. Son ventre est brun jaunâtre tacheté de brun foncé.
 </t>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, barberi, lui a été donné en référence à Charles M. Barber qui a collecté l'holotype[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, barberi, lui a été donné en référence à Charles M. Barber qui a collecté l'holotype.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Schmidt, 1939 : New Central American Frogs of the Genus Hypopachus. Zoological Series of Field Museum of Natural History, vol. 24, no 1, p. 1-5 (texte intégral).
 Smith, Langebartel &amp; Williams, 1964 : Herpetological type-specimens in the University of Illinois Museum of Natural History. Illinois Biological Monographs, vol. 32, p. 1-80.
